--- a/Data/CommercialHarvestData.xlsx
+++ b/Data/CommercialHarvestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofalaska-my.sharepoint.com/personal/kyle_gatt_alaska_gov/Documents/Documents/GitHub/Statewide-Forecast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{1A46E635-3795-4BC8-BD2F-A3306A0190BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DC8B8CC-43C1-4901-88A1-D76D14F1145A}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{1A46E635-3795-4BC8-BD2F-A3306A0190BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CF9E437-E26B-4D9E-AA02-3385DB66499D}"/>
   <bookViews>
-    <workbookView xWindow="15375" yWindow="1290" windowWidth="14205" windowHeight="17370" xr2:uid="{3C37FA6E-748E-43C8-BD9C-1B7DB57DD738}"/>
+    <workbookView xWindow="3570" yWindow="5070" windowWidth="21120" windowHeight="12075" xr2:uid="{3C37FA6E-748E-43C8-BD9C-1B7DB57DD738}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,8 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADED1759-1789-4C96-B46D-38E00D94A44F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -516,7 +518,7 @@
         <v>93696</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -539,7 +541,7 @@
         <v>174514</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -562,7 +564,7 @@
         <v>51040</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -585,7 +587,7 @@
         <v>38755</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -608,7 +610,7 @@
         <v>14958</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -631,7 +633,7 @@
         <v>69740</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -654,7 +656,7 @@
         <v>98610</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -677,7 +679,7 @@
         <v>6427530</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -723,7 +725,7 @@
         <v>477416</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -746,7 +748,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -769,7 +771,7 @@
         <v>42532</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -792,7 +794,7 @@
         <v>64033</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -815,7 +817,7 @@
         <v>71974</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -838,7 +840,7 @@
         <v>13555280</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -884,7 +886,7 @@
         <v>1081989</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -907,7 +909,7 @@
         <v>61630</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -930,7 +932,7 @@
         <v>131718</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -953,7 +955,7 @@
         <v>1178507</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -976,7 +978,7 @@
         <v>77240</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -999,7 +1001,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1022,7 +1024,7 @@
         <v>9417807</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1068,7 +1070,7 @@
         <v>728919</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1091,7 +1093,7 @@
         <v>78552</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1114,7 +1116,7 @@
         <v>181009</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1139,7 @@
         <v>679821</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1160,7 +1162,7 @@
         <v>50315</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1183,7 +1185,7 @@
         <v>175736</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1206,7 +1208,7 @@
         <v>9053088</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1252,7 +1254,7 @@
         <v>908019</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>209325</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1298,7 +1300,7 @@
         <v>177364</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1321,7 +1323,7 @@
         <v>802419</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1344,7 +1346,7 @@
         <v>82808</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1369,7 @@
         <v>73983</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1390,7 +1392,7 @@
         <v>9654000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1436,7 +1438,7 @@
         <v>955807</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>256424</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1482,7 +1484,7 @@
         <v>105994</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>1680719</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1528,7 +1530,7 @@
         <v>228863</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1551,7 +1553,7 @@
         <v>94758</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1574,7 +1576,7 @@
         <v>9472000</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1620,7 +1622,7 @@
         <v>734808</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -1643,7 +1645,7 @@
         <v>581329</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -1666,7 +1668,7 @@
         <v>259063</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>792041</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1712,7 +1714,7 @@
         <v>129407</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1735,7 +1737,7 @@
         <v>31718</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1758,7 +1760,7 @@
         <v>10702000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -1804,7 +1806,7 @@
         <v>823202</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -1827,7 +1829,7 @@
         <v>269503</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -1850,7 +1852,7 @@
         <v>293782</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -1873,7 +1875,7 @@
         <v>977755</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1896,7 +1898,7 @@
         <v>269733</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1919,7 +1921,7 @@
         <v>55465</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>12372347</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -1988,7 +1990,7 @@
         <v>866381</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -2011,7 +2013,7 @@
         <v>170872</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -2034,7 +2036,7 @@
         <v>285369</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -2057,7 +2059,7 @@
         <v>624005</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2080,7 +2082,7 @@
         <v>139365</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2103,7 +2105,7 @@
         <v>54402</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2126,7 +2128,7 @@
         <v>12572963</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2172,7 +2174,7 @@
         <v>794054</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -2195,7 +2197,7 @@
         <v>154965</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -2218,7 +2220,7 @@
         <v>130942</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>950887</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2264,7 +2266,7 @@
         <v>116127</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>73515</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2310,7 +2312,7 @@
         <v>6679857</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>336572</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2379,7 +2381,7 @@
         <v>55152</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -2402,7 +2404,7 @@
         <v>131767</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2425,7 +2427,7 @@
         <v>498696</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2448,7 +2450,7 @@
         <v>275960</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -2471,7 +2473,7 @@
         <v>113469</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -2494,7 +2496,7 @@
         <v>11627649</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -2540,7 +2542,7 @@
         <v>770539</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -2563,7 +2565,7 @@
         <v>101017</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -2586,7 +2588,7 @@
         <v>191753</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -2609,7 +2611,7 @@
         <v>675688</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -2632,7 +2634,7 @@
         <v>123679</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2655,7 +2657,7 @@
         <v>74245</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -2678,7 +2680,7 @@
         <v>9117600</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -2724,7 +2726,7 @@
         <v>403881</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -2747,7 +2749,7 @@
         <v>118435</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -2770,7 +2772,7 @@
         <v>88894</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -2793,7 +2795,7 @@
         <v>426625</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -2816,7 +2818,7 @@
         <v>243600</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -2839,7 +2841,7 @@
         <v>197731</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -2862,7 +2864,7 @@
         <v>11429218</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -2908,7 +2910,7 @@
         <v>1891381</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -2931,7 +2933,7 @@
         <v>609171</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -2954,7 +2956,7 @@
         <v>83175</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -2977,7 +2979,7 @@
         <v>1949063</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3000,7 +3002,7 @@
         <v>115366</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -3023,7 +3025,7 @@
         <v>48730</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -3046,7 +3048,7 @@
         <v>11471752</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -3092,7 +3094,7 @@
         <v>463834</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -3115,7 +3117,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -3138,7 +3140,7 @@
         <v>157349</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -3161,7 +3163,7 @@
         <v>996921</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -3184,7 +3186,7 @@
         <v>129176</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -3207,7 +3209,7 @@
         <v>56667</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -3230,7 +3232,7 @@
         <v>9417250</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -3276,7 +3278,7 @@
         <v>552431</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -3299,7 +3301,7 @@
         <v>157517</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -3322,7 +3324,7 @@
         <v>234220</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -3345,7 +3347,7 @@
         <v>1167118</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -3368,7 +3370,7 @@
         <v>29217</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -3391,7 +3393,7 @@
         <v>16585</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -3414,7 +3416,7 @@
         <v>4696428</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -3460,7 +3462,7 @@
         <v>368901</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -3483,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -3506,7 +3508,7 @@
         <v>56152</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -3529,7 +3531,7 @@
         <v>914023</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3552,7 +3554,7 @@
         <v>70242</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -3575,7 +3577,7 @@
         <v>27464</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -3598,7 +3600,7 @@
         <v>7415993</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -3644,7 +3646,7 @@
         <v>409373</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -3667,7 +3669,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -3690,7 +3692,7 @@
         <v>28070</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -3713,7 +3715,7 @@
         <v>2241071</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -3736,7 +3738,7 @@
         <v>99494</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -3759,7 +3761,7 @@
         <v>53793</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -3782,7 +3784,7 @@
         <v>10456496</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -3828,7 +3830,7 @@
         <v>550409</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -3851,7 +3853,7 @@
         <v>70886</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>13</v>
       </c>
@@ -3874,7 +3876,7 @@
         <v>14095</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -3897,7 +3899,7 @@
         <v>820095</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -3920,7 +3922,7 @@
         <v>126264</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -3943,7 +3945,7 @@
         <v>39441</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -3966,7 +3968,7 @@
         <v>15725616</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -4012,7 +4014,7 @@
         <v>827907</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -4035,7 +4037,7 @@
         <v>109695</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -4058,7 +4060,7 @@
         <v>92259</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -4081,7 +4083,7 @@
         <v>1130828</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -4104,7 +4106,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -4127,7 +4129,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -4150,7 +4152,7 @@
         <v>15686626</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -4177,26 +4179,26 @@
       <c r="A162" t="s">
         <v>11</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
         <v>2024</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>1486</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="1">
         <v>1619368</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="1">
         <v>63928</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="1">
         <v>7322288</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="1">
         <v>498024</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -4219,7 +4221,7 @@
         <v>61316</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -4242,7 +4244,7 @@
         <v>66814</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -4266,7 +4268,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G165" xr:uid="{ADED1759-1789-4C96-B46D-38E00D94A44F}"/>
+  <autoFilter ref="A1:G165" xr:uid="{ADED1759-1789-4C96-B46D-38E00D94A44F}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Kodiak"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G157">
     <sortCondition ref="B2:B157"/>
   </sortState>
